--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Docling/results.xlsx
@@ -517,13 +517,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>25.32467532467532</v>
+        <v>25.16556291390729</v>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
         <v>13</v>
@@ -553,7 +553,7 @@
         <v>0.48</v>
       </c>
       <c r="N2" t="n">
-        <v>17.3269013954867</v>
+        <v>17.85893400428663</v>
       </c>
       <c r="O2" t="n">
         <v>5.428795743489114e-153</v>
@@ -566,19 +566,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>48.79518072289157</v>
+        <v>49.17695473251029</v>
       </c>
       <c r="D3" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>85.36585365853658</v>
+        <v>84.81012658227847</v>
       </c>
       <c r="G3" t="n">
         <v>13</v>
@@ -587,25 +587,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="N3" t="n">
-        <v>10.11168525403559</v>
+        <v>13.69024163323248</v>
       </c>
       <c r="O3" t="n">
-        <v>9.70543379372769e-77</v>
+        <v>1.007581103602097e-76</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1896</v>
+        <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>59.07172995780591</v>
+        <v>57.83783783783784</v>
       </c>
       <c r="D4" t="n">
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="E4" t="n">
         <v>247</v>
       </c>
       <c r="F4" t="n">
-        <v>110.9311740890688</v>
+        <v>106.8825910931174</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I4" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J4" t="n">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06072874493927125</v>
+        <v>0.1012145748987854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1140684410646388</v>
+        <v>0.1838235294117647</v>
       </c>
       <c r="N4" t="n">
-        <v>4.150832169927606</v>
+        <v>4.381760159331423</v>
       </c>
       <c r="O4" t="n">
-        <v>8.267173006858748e-230</v>
+        <v>8.980406519850354e-230</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>856</v>
+        <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>82.12616822429906</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="D5" t="n">
-        <v>703</v>
+        <v>658</v>
       </c>
       <c r="E5" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
-        <v>100.8547008547009</v>
+        <v>100.9174311926605</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I5" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2478632478632479</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3945578231292517</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="N5" t="n">
-        <v>14.77898445533996</v>
+        <v>13.96087531178258</v>
       </c>
       <c r="O5" t="n">
-        <v>1.476587471987119e-76</v>
+        <v>1.595321069846277e-76</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>51.22950819672131</v>
+        <v>48.59611231101512</v>
       </c>
       <c r="D6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
       </c>
       <c r="F6" t="n">
-        <v>117.4603174603175</v>
+        <v>100.7936507936508</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I6" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J6" t="n">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="K6" t="n">
-        <v>0.625</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2531645569620253</v>
+        <v>0.4484848484848485</v>
       </c>
       <c r="N6" t="n">
-        <v>12.49345454377533</v>
+        <v>13.13857682909185</v>
       </c>
       <c r="O6" t="n">
-        <v>8.99355691417215e-77</v>
+        <v>1.139567796103441e-76</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>62.43050039714058</v>
+        <v>61.14701130856219</v>
       </c>
       <c r="D7" t="n">
-        <v>786</v>
+        <v>757</v>
       </c>
       <c r="E7" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" t="n">
-        <v>98.31460674157303</v>
+        <v>98.85057471264368</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I7" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J7" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7" t="n">
-        <v>0.101123595505618</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="M7" t="n">
-        <v>0.182741116751269</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="N7" t="n">
-        <v>8.580007045210312</v>
+        <v>9.19864728773336</v>
       </c>
       <c r="O7" t="n">
-        <v>9.181748633447778e-230</v>
+        <v>9.581368865494974e-230</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>38.48684210526316</v>
+        <v>38.43508168529664</v>
       </c>
       <c r="D8" t="n">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="E8" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>96.1038961038961</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I8" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J8" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1402439024390244</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2408376963350785</v>
+        <v>0.2841530054644809</v>
       </c>
       <c r="N8" t="n">
-        <v>15.11128636623901</v>
+        <v>14.82291972543118</v>
       </c>
       <c r="O8" t="n">
-        <v>2.53794246665704e-153</v>
+        <v>7.956519688400024e-77</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1845</v>
+        <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>40.5420054200542</v>
+        <v>39.82202447163515</v>
       </c>
       <c r="D9" t="n">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F9" t="n">
-        <v>91.28787878787878</v>
+        <v>87.64478764478764</v>
       </c>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J9" t="n">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.2007722007722008</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3144654088050314</v>
+        <v>0.3312101910828025</v>
       </c>
       <c r="N9" t="n">
-        <v>31.71212439071037</v>
+        <v>32.20231441300488</v>
       </c>
       <c r="O9" t="n">
-        <v>7.640167681134879e-77</v>
+        <v>8.227647970060187e-77</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Docling/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>25.16556291390729</v>
+        <v>124</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>34.43708609271523</v>
+      </c>
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="F2" t="n">
-        <v>68.42105263157895</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
       </c>
       <c r="I2" t="n">
         <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>94.73684210526315</v>
+      </c>
+      <c r="M2" t="n">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.57894736842105</v>
+      </c>
+      <c r="P2" t="n">
+        <v>68.42105263157895</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.3157894736842105</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.48</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>17.85893400428663</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>5.428795743489114e-153</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>49.17695473251029</v>
+        <v>328</v>
       </c>
       <c r="D3" t="n">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="E3" t="n">
+        <v>109</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54.93827160493827</v>
+      </c>
+      <c r="G3" t="n">
         <v>79</v>
       </c>
-      <c r="F3" t="n">
-        <v>84.81012658227847</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>13</v>
       </c>
-      <c r="H3" t="n">
-        <v>46</v>
-      </c>
       <c r="I3" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="J3" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
+        <v>26</v>
+      </c>
+      <c r="L3" t="n">
+        <v>106.3291139240506</v>
+      </c>
+      <c r="M3" t="n">
+        <v>70.88607594936708</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>16.45569620253164</v>
+      </c>
+      <c r="P3" t="n">
+        <v>51.89873417721519</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.189873417721519</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.3191489361702128</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>13.69024163323248</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>1.007581103602097e-76</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>57.83783783783784</v>
+        <v>1142</v>
       </c>
       <c r="D4" t="n">
-        <v>1070</v>
+        <v>708</v>
       </c>
       <c r="E4" t="n">
+        <v>439</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62</v>
+      </c>
+      <c r="G4" t="n">
         <v>247</v>
       </c>
-      <c r="F4" t="n">
-        <v>106.8825910931174</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>16</v>
       </c>
-      <c r="H4" t="n">
-        <v>109</v>
-      </c>
       <c r="I4" t="n">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="J4" t="n">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="K4" t="n">
+        <v>194</v>
+      </c>
+      <c r="L4" t="n">
+        <v>142.1052631578947</v>
+      </c>
+      <c r="M4" t="n">
+        <v>121.4574898785425</v>
+      </c>
+      <c r="N4" t="n">
+        <v>51</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.477732793522267</v>
+      </c>
+      <c r="P4" t="n">
+        <v>27.12550607287449</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.1012145748987854</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.1838235294117647</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>4.381760159331423</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>8.980406519850354e-230</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>82.35294117647058</v>
+        <v>582</v>
       </c>
       <c r="D5" t="n">
-        <v>658</v>
+        <v>217</v>
       </c>
       <c r="E5" t="n">
+        <v>141</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44.80600750938674</v>
+      </c>
+      <c r="G5" t="n">
         <v>109</v>
       </c>
-      <c r="F5" t="n">
-        <v>100.9174311926605</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>35</v>
       </c>
-      <c r="H5" t="n">
-        <v>78</v>
-      </c>
       <c r="I5" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J5" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
+        <v>42</v>
+      </c>
+      <c r="L5" t="n">
+        <v>92.66055045871559</v>
+      </c>
+      <c r="M5" t="n">
+        <v>62.38532110091744</v>
+      </c>
+      <c r="N5" t="n">
+        <v>33</v>
+      </c>
+      <c r="O5" t="n">
+        <v>32.11009174311927</v>
+      </c>
+      <c r="P5" t="n">
+        <v>62.38532110091744</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.9722222222222222</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.3211009174311927</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.4827586206896552</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>13.96087531178258</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>1.595321069846277e-76</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>48.59611231101512</v>
+        <v>771</v>
       </c>
       <c r="D6" t="n">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="E6" t="n">
+        <v>188</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37.04103671706264</v>
+      </c>
+      <c r="G6" t="n">
         <v>126</v>
       </c>
-      <c r="F6" t="n">
-        <v>100.7936507936508</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>31</v>
       </c>
-      <c r="H6" t="n">
-        <v>95</v>
-      </c>
       <c r="I6" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J6" t="n">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
+        <v>57</v>
+      </c>
+      <c r="L6" t="n">
+        <v>102.3809523809524</v>
+      </c>
+      <c r="M6" t="n">
+        <v>65.87301587301587</v>
+      </c>
+      <c r="N6" t="n">
+        <v>46</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24.6031746031746</v>
+      </c>
+      <c r="P6" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.9487179487179487</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.2936507936507937</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.4484848484848485</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>13.13857682909185</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>1.139567796103441e-76</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>61.14701130856219</v>
+        <v>691</v>
       </c>
       <c r="D7" t="n">
-        <v>757</v>
+        <v>547</v>
       </c>
       <c r="E7" t="n">
+        <v>455</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.93699515347335</v>
+      </c>
+      <c r="G7" t="n">
         <v>174</v>
       </c>
-      <c r="F7" t="n">
-        <v>98.85057471264368</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>14</v>
       </c>
-      <c r="H7" t="n">
-        <v>70</v>
-      </c>
       <c r="I7" t="n">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="J7" t="n">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="K7" t="n">
+        <v>130</v>
+      </c>
+      <c r="L7" t="n">
+        <v>134.4827586206897</v>
+      </c>
+      <c r="M7" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="N7" t="n">
+        <v>31</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.045977011494253</v>
+      </c>
+      <c r="P7" t="n">
+        <v>25.86206896551724</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.1149425287356322</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.2040816326530612</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>9.19864728773336</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>9.581368865494974e-230</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>38.43508168529664</v>
+        <v>940</v>
       </c>
       <c r="D8" t="n">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="E8" t="n">
+        <v>189</v>
+      </c>
+      <c r="F8" t="n">
+        <v>35.4256233877902</v>
+      </c>
+      <c r="G8" t="n">
         <v>154</v>
       </c>
-      <c r="F8" t="n">
-        <v>96.1038961038961</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>26</v>
       </c>
-      <c r="H8" t="n">
-        <v>98</v>
-      </c>
       <c r="I8" t="n">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="J8" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
+        <v>83</v>
+      </c>
+      <c r="L8" t="n">
+        <v>116.8831168831169</v>
+      </c>
+      <c r="M8" t="n">
+        <v>83.11688311688312</v>
+      </c>
+      <c r="N8" t="n">
+        <v>52</v>
+      </c>
+      <c r="O8" t="n">
+        <v>16.88311688311688</v>
+      </c>
+      <c r="P8" t="n">
+        <v>50.64935064935064</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.896551724137931</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.1688311688311688</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.2841530054644809</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>14.82291972543118</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>7.956519688400024e-77</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>39.82202447163515</v>
+        <v>1444</v>
       </c>
       <c r="D9" t="n">
-        <v>716</v>
+        <v>354</v>
       </c>
       <c r="E9" t="n">
+        <v>333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38.2091212458287</v>
+      </c>
+      <c r="G9" t="n">
         <v>259</v>
       </c>
-      <c r="F9" t="n">
-        <v>87.64478764478764</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>49</v>
       </c>
-      <c r="H9" t="n">
-        <v>159</v>
-      </c>
       <c r="I9" t="n">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="K9" t="n">
+        <v>161</v>
+      </c>
+      <c r="L9" t="n">
+        <v>115.0579150579151</v>
+      </c>
+      <c r="M9" t="n">
+        <v>95.36679536679536</v>
+      </c>
+      <c r="N9" t="n">
+        <v>51</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18.91891891891892</v>
+      </c>
+      <c r="P9" t="n">
+        <v>38.61003861003861</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.9454545454545454</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.2007722007722008</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.3312101910828025</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>32.20231441300488</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>8.227647970060187e-77</v>
       </c>
     </row>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Docling/results.xlsx
@@ -620,58 +620,58 @@
         <v>486</v>
       </c>
       <c r="B3" t="n">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C3" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D3" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5494</v>
+        <v>0.5206</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" t="n">
         <v>28</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5063</v>
+        <v>1.481</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7975</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2059</v>
+        <v>0.2206</v>
       </c>
       <c r="O3" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1772</v>
+        <v>0.1899</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2745</v>
+        <v>0.2885</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1905</v>
+        <v>0.2041</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3077</v>
+        <v>0.3261</v>
       </c>
       <c r="T3" t="n">
         <v>0.1369</v>
@@ -690,58 +690,58 @@
         <v>1850</v>
       </c>
       <c r="B4" t="n">
-        <v>1142</v>
+        <v>1170</v>
       </c>
       <c r="C4" t="n">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="D4" t="n">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.62</v>
+        <v>0.5897</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I4" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K4" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="L4" t="n">
-        <v>1.8988</v>
+        <v>1.8543</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4858</v>
+        <v>1.332</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.1191</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1096</v>
+        <v>0.1692</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09719999999999999</v>
+        <v>0.1336</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1224</v>
+        <v>0.165</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09279999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1157</v>
+        <v>0.1671</v>
       </c>
       <c r="T4" t="n">
         <v>0.0438</v>
@@ -760,58 +760,58 @@
         <v>799</v>
       </c>
       <c r="B5" t="n">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="C5" t="n">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D5" t="n">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4481</v>
+        <v>0.393</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
       </c>
       <c r="G5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L5" t="n">
-        <v>1.367</v>
+        <v>1.3394</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7615</v>
+        <v>0.6881</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3276</v>
+        <v>0.3419</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4578</v>
+        <v>0.5263</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3486</v>
+        <v>0.367</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
+        <v>0.5063</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3378</v>
+        <v>0.354</v>
       </c>
       <c r="S5" t="n">
-        <v>0.478</v>
+        <v>0.5161</v>
       </c>
       <c r="T5" t="n">
         <v>0.1396</v>
@@ -830,58 +830,58 @@
         <v>926</v>
       </c>
       <c r="B6" t="n">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="C6" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D6" t="n">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3704</v>
+        <v>0.3315</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
       </c>
       <c r="G6" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H6" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I6" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K6" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5238</v>
+        <v>1.4683</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7937</v>
+        <v>0.7302</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2676</v>
+        <v>0.2937</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3958</v>
+        <v>0.4615</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3016</v>
+        <v>0.3333</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.475</v>
+        <v>0.4941</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2836</v>
+        <v>0.3123</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4318</v>
+        <v>0.4773</v>
       </c>
       <c r="T6" t="n">
         <v>0.1314</v>
@@ -900,58 +900,58 @@
         <v>1238</v>
       </c>
       <c r="B7" t="n">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="C7" t="n">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="D7" t="n">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8094</v>
+        <v>0.7609</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I7" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L7" t="n">
-        <v>1.7184</v>
+        <v>1.6724</v>
       </c>
       <c r="M7" t="n">
-        <v>1.3621</v>
+        <v>1.2184</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1827</v>
+        <v>0.2118</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2169</v>
+        <v>0.2792</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2069</v>
+        <v>0.2471</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2517</v>
+        <v>0.2986</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1941</v>
+        <v>0.2281</v>
       </c>
       <c r="S7" t="n">
-        <v>0.233</v>
+        <v>0.2886</v>
       </c>
       <c r="T7" t="n">
         <v>0.092</v>
@@ -970,58 +970,58 @@
         <v>1163</v>
       </c>
       <c r="B8" t="n">
-        <v>940</v>
+        <v>973</v>
       </c>
       <c r="C8" t="n">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="D8" t="n">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3543</v>
+        <v>0.2975</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I8" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J8" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L8" t="n">
-        <v>1.6364</v>
+        <v>1.5714</v>
       </c>
       <c r="M8" t="n">
-        <v>0.961</v>
+        <v>0.8377</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2151</v>
+        <v>0.2528</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3083</v>
+        <v>0.3879</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2403</v>
+        <v>0.2922</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3627</v>
+        <v>0.4369</v>
       </c>
       <c r="R8" t="n">
-        <v>0.227</v>
+        <v>0.2711</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3333</v>
+        <v>0.411</v>
       </c>
       <c r="T8" t="n">
         <v>0.1482</v>
@@ -1040,58 +1040,58 @@
         <v>1798</v>
       </c>
       <c r="B9" t="n">
-        <v>1444</v>
+        <v>1473</v>
       </c>
       <c r="C9" t="n">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="D9" t="n">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3821</v>
+        <v>0.3498</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
       </c>
       <c r="G9" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H9" t="n">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I9" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J9" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K9" t="n">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5521</v>
+        <v>1.5174</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1583</v>
+        <v>0.9575</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2473</v>
+        <v>0.2674</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3017</v>
+        <v>0.3909</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2703</v>
+        <v>0.2973</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3365</v>
+        <v>0.3756</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2583</v>
+        <v>0.2815</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3182</v>
+        <v>0.3831</v>
       </c>
       <c r="T9" t="n">
         <v>0.322</v>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Docling/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3444</v>
+        <v>0.32</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C3" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5206</v>
+        <v>0.4517</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B4" t="n">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C4" t="n">
         <v>680</v>
       </c>
       <c r="D4" t="n">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5897</v>
+        <v>0.5819</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>799</v>
+        <v>721</v>
       </c>
       <c r="B5" t="n">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C5" t="n">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
-        <v>0.393</v>
+        <v>0.2829</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="B6" t="n">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="C6" t="n">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D6" t="n">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3315</v>
+        <v>0.2703</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="n">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C7" t="n">
         <v>517</v>
       </c>
       <c r="D7" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7609</v>
+        <v>0.765</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="B8" t="n">
-        <v>973</v>
+        <v>954</v>
       </c>
       <c r="C8" t="n">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D8" t="n">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2975</v>
+        <v>0.267</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="n">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="C9" t="n">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D9" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3498</v>
+        <v>0.3442</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
